--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2471.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2471.xlsx
@@ -354,7 +354,7 @@
         <v>2.620789846676461</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.637582812418842</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2471.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2471.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.138321163079152</v>
+        <v>1.435222387313843</v>
       </c>
       <c r="B1">
-        <v>2.620789846676461</v>
+        <v>1.995905518531799</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.456494331359863</v>
       </c>
       <c r="D1">
-        <v>3.637582812418842</v>
+        <v>4.804220199584961</v>
       </c>
       <c r="E1">
-        <v>0.9424907181829194</v>
+        <v>0.8637256622314453</v>
       </c>
     </row>
   </sheetData>
